--- a/Arquivos/Comparações/Comparação entre os melhores resultados dos graspRVND.xlsx
+++ b/Arquivos/Comparações/Comparação entre os melhores resultados dos graspRVND.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="55">
   <si>
     <t>Versão do graspRVND (Melhor resultado independente de alfa )</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Média das porcentagens</t>
+  </si>
+  <si>
+    <t>graspRVND Aleátorio</t>
+  </si>
+  <si>
+    <t>graspRVND semi-aleatório</t>
   </si>
 </sst>
 </file>
@@ -824,7 +830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +869,24 @@
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1201,14 +1225,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:Y49"/>
+  <dimension ref="C2:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
+    <col min="3" max="3" width="12.8571428571429"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="21.8571428571429" customWidth="1"/>
     <col min="7" max="7" width="9.57142857142857"/>
@@ -1366,7 +1391,7 @@
       <c r="K5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="19">
         <v>140</v>
       </c>
       <c r="M5" s="9">
@@ -1375,7 +1400,7 @@
       <c r="N5" s="9">
         <v>1237.16</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="20">
         <f>SMALL(M5:N5,1)</f>
         <v>1237.16</v>
       </c>
@@ -1390,7 +1415,7 @@
       <c r="S5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="19">
         <v>210</v>
       </c>
       <c r="U5" s="9">
@@ -1440,7 +1465,7 @@
       <c r="K6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="19">
         <v>14</v>
       </c>
       <c r="M6" s="9">
@@ -1449,7 +1474,7 @@
       <c r="N6" s="9">
         <v>574</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="20">
         <f t="shared" ref="O6:O48" si="3">SMALL(M6:N6,1)</f>
         <v>546</v>
       </c>
@@ -1464,7 +1489,7 @@
       <c r="S6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="19">
         <v>21</v>
       </c>
       <c r="U6" s="9">
@@ -1514,7 +1539,7 @@
       <c r="K7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="19">
         <v>14</v>
       </c>
       <c r="M7" s="9">
@@ -1523,7 +1548,7 @@
       <c r="N7" s="9">
         <v>651</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="20">
         <f t="shared" si="3"/>
         <v>640</v>
       </c>
@@ -1538,7 +1563,7 @@
       <c r="S7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="19">
         <v>21</v>
       </c>
       <c r="U7" s="9">
@@ -1588,7 +1613,7 @@
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="19">
         <v>26</v>
       </c>
       <c r="M8" s="9">
@@ -1597,7 +1622,7 @@
       <c r="N8" s="9">
         <v>1734</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="20">
         <f t="shared" si="3"/>
         <v>1733.82</v>
       </c>
@@ -1612,7 +1637,7 @@
       <c r="S8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="19">
         <v>39</v>
       </c>
       <c r="U8" s="9">
@@ -1662,7 +1687,7 @@
       <c r="K9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="19">
         <v>63</v>
       </c>
       <c r="M9" s="9">
@@ -1671,7 +1696,7 @@
       <c r="N9" s="9">
         <v>25288</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="20">
         <f t="shared" si="3"/>
         <v>25288</v>
       </c>
@@ -1686,7 +1711,7 @@
       <c r="S9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="19">
         <v>95</v>
       </c>
       <c r="U9" s="9">
@@ -1736,7 +1761,7 @@
       <c r="K10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="19">
         <v>7</v>
       </c>
       <c r="M10" s="9">
@@ -1745,7 +1770,7 @@
       <c r="N10" s="9">
         <v>1140.19</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="20">
         <f t="shared" si="3"/>
         <v>966</v>
       </c>
@@ -1760,7 +1785,7 @@
       <c r="S10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="19">
         <v>10</v>
       </c>
       <c r="U10" s="9">
@@ -1810,7 +1835,7 @@
       <c r="K11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="19">
         <v>65</v>
       </c>
       <c r="M11" s="9">
@@ -1819,7 +1844,7 @@
       <c r="N11" s="9">
         <v>2378.61</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="20">
         <f t="shared" si="3"/>
         <v>2378.61</v>
       </c>
@@ -1834,7 +1859,7 @@
       <c r="S11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="19">
         <v>97</v>
       </c>
       <c r="U11" s="9">
@@ -1884,7 +1909,7 @@
       <c r="K12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="19">
         <v>75</v>
       </c>
       <c r="M12" s="9">
@@ -1893,7 +1918,7 @@
       <c r="N12" s="9">
         <v>2735</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="20">
         <f t="shared" si="3"/>
         <v>2735</v>
       </c>
@@ -1908,7 +1933,7 @@
       <c r="S12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="19">
         <v>112</v>
       </c>
       <c r="U12" s="9">
@@ -1958,7 +1983,7 @@
       <c r="K13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="19">
         <v>21</v>
       </c>
       <c r="M13" s="9">
@@ -1967,7 +1992,7 @@
       <c r="N13" s="9">
         <v>218</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="20">
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
@@ -1982,7 +2007,7 @@
       <c r="S13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="19">
         <v>31</v>
       </c>
       <c r="U13" s="9">
@@ -2032,7 +2057,7 @@
       <c r="K14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="19">
         <v>25</v>
       </c>
       <c r="M14" s="9">
@@ -2041,7 +2066,7 @@
       <c r="N14" s="9">
         <v>168.63</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="20">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
@@ -2056,7 +2081,7 @@
       <c r="S14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="19">
         <v>38</v>
       </c>
       <c r="U14" s="9">
@@ -2106,7 +2131,7 @@
       <c r="K15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="19">
         <v>38</v>
       </c>
       <c r="M15" s="9">
@@ -2115,7 +2140,7 @@
       <c r="N15" s="9">
         <v>210</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="20">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -2130,7 +2155,7 @@
       <c r="S15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="19">
         <v>57</v>
       </c>
       <c r="U15" s="9">
@@ -2180,7 +2205,7 @@
       <c r="K16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="19">
         <v>50</v>
       </c>
       <c r="M16" s="9">
@@ -2189,7 +2214,7 @@
       <c r="N16" s="9">
         <v>230</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="20">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
@@ -2204,7 +2229,7 @@
       <c r="S16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="19">
         <v>75</v>
       </c>
       <c r="U16" s="9">
@@ -2254,7 +2279,7 @@
       <c r="K17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="19">
         <v>13</v>
       </c>
       <c r="M17" s="9">
@@ -2263,7 +2288,7 @@
       <c r="N17" s="9">
         <v>317</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="20">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
@@ -2278,7 +2303,7 @@
       <c r="S17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="19">
         <v>19</v>
       </c>
       <c r="U17" s="9">
@@ -2328,7 +2353,7 @@
       <c r="K18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="19">
         <v>131</v>
       </c>
       <c r="M18" s="9">
@@ -2337,7 +2362,7 @@
       <c r="N18" s="9">
         <v>969</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="20">
         <f t="shared" si="3"/>
         <v>969</v>
       </c>
@@ -2352,7 +2377,7 @@
       <c r="S18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="19">
         <v>196</v>
       </c>
       <c r="U18" s="9">
@@ -2402,7 +2427,7 @@
       <c r="K19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="19">
         <v>8</v>
       </c>
       <c r="M19" s="9">
@@ -2411,7 +2436,7 @@
       <c r="N19" s="9">
         <v>359</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="20">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
@@ -2426,7 +2451,7 @@
       <c r="S19" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="19">
         <v>12</v>
       </c>
       <c r="U19" s="9">
@@ -2476,7 +2501,7 @@
       <c r="K20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="19">
         <v>10</v>
       </c>
       <c r="M20" s="9">
@@ -2485,7 +2510,7 @@
       <c r="N20" s="9">
         <v>711</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="20">
         <f t="shared" si="3"/>
         <v>683</v>
       </c>
@@ -2500,7 +2525,7 @@
       <c r="S20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="19">
         <v>15</v>
       </c>
       <c r="U20" s="9">
@@ -2550,7 +2575,7 @@
       <c r="K21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="19">
         <v>12</v>
       </c>
       <c r="M21" s="9">
@@ -2559,7 +2584,7 @@
       <c r="N21" s="9">
         <v>396</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="20">
         <f t="shared" si="3"/>
         <v>396</v>
       </c>
@@ -2574,7 +2599,7 @@
       <c r="S21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="19">
         <v>18</v>
       </c>
       <c r="U21" s="9">
@@ -2624,7 +2649,7 @@
       <c r="K22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="19">
         <v>24</v>
       </c>
       <c r="M22" s="9">
@@ -2633,7 +2658,7 @@
       <c r="N22" s="9">
         <v>1666</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="20">
         <f t="shared" si="3"/>
         <v>1666</v>
       </c>
@@ -2648,7 +2673,7 @@
       <c r="S22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="19">
         <v>36</v>
       </c>
       <c r="U22" s="9">
@@ -2698,7 +2723,7 @@
       <c r="K23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="19">
         <v>48</v>
       </c>
       <c r="M23" s="9">
@@ -2707,7 +2732,7 @@
       <c r="N23" s="9">
         <v>20276.2</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="20">
         <f t="shared" si="3"/>
         <v>20276.2</v>
       </c>
@@ -2722,7 +2747,7 @@
       <c r="S23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="19">
         <v>72</v>
       </c>
       <c r="U23" s="9">
@@ -2772,7 +2797,7 @@
       <c r="K24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="19">
         <v>24</v>
       </c>
       <c r="M24" s="9">
@@ -2781,7 +2806,7 @@
       <c r="N24" s="9">
         <v>3990</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="20">
         <f t="shared" si="3"/>
         <v>3990</v>
       </c>
@@ -2796,7 +2821,7 @@
       <c r="S24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="19">
         <v>36</v>
       </c>
       <c r="U24" s="9">
@@ -2846,7 +2871,7 @@
       <c r="K25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="19">
         <v>50</v>
       </c>
       <c r="M25" s="9">
@@ -2855,7 +2880,7 @@
       <c r="N25" s="9">
         <v>8725</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="20">
         <f t="shared" si="3"/>
         <v>8678</v>
       </c>
@@ -2870,7 +2895,7 @@
       <c r="S25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T25" s="13">
+      <c r="T25" s="19">
         <v>75</v>
       </c>
       <c r="U25" s="9">
@@ -2920,7 +2945,7 @@
       <c r="K26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L26" s="19">
         <v>75</v>
       </c>
       <c r="M26" s="9">
@@ -2929,7 +2954,7 @@
       <c r="N26" s="9">
         <v>11039</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="20">
         <f t="shared" si="3"/>
         <v>11039</v>
       </c>
@@ -2944,7 +2969,7 @@
       <c r="S26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="13">
+      <c r="T26" s="19">
         <v>112</v>
       </c>
       <c r="U26" s="9">
@@ -2994,7 +3019,7 @@
       <c r="K27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="19">
         <v>100</v>
       </c>
       <c r="M27" s="9">
@@ -3003,7 +3028,7 @@
       <c r="N27" s="9">
         <v>12730</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="20">
         <f t="shared" si="3"/>
         <v>12730</v>
       </c>
@@ -3018,7 +3043,7 @@
       <c r="S27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T27" s="13">
+      <c r="T27" s="19">
         <v>150</v>
       </c>
       <c r="U27" s="9">
@@ -3068,7 +3093,7 @@
       <c r="K28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="19">
         <v>50</v>
       </c>
       <c r="M28" s="9">
@@ -3077,7 +3102,7 @@
       <c r="N28" s="9">
         <v>8621</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="20">
         <f t="shared" si="3"/>
         <v>8621</v>
       </c>
@@ -3092,7 +3117,7 @@
       <c r="S28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="13">
+      <c r="T28" s="19">
         <v>75</v>
       </c>
       <c r="U28" s="9">
@@ -3142,7 +3167,7 @@
       <c r="K29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="19">
         <v>75</v>
       </c>
       <c r="M29" s="9">
@@ -3151,7 +3176,7 @@
       <c r="N29" s="9">
         <v>11024</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="20">
         <f t="shared" si="3"/>
         <v>11024</v>
       </c>
@@ -3166,7 +3191,7 @@
       <c r="S29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T29" s="13">
+      <c r="T29" s="19">
         <v>112</v>
       </c>
       <c r="U29" s="9">
@@ -3216,7 +3241,7 @@
       <c r="K30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="19">
         <v>100</v>
       </c>
       <c r="M30" s="9">
@@ -3225,7 +3250,7 @@
       <c r="N30" s="9">
         <v>12515</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="20">
         <f t="shared" si="3"/>
         <v>12515</v>
       </c>
@@ -3240,7 +3265,7 @@
       <c r="S30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T30" s="13">
+      <c r="T30" s="19">
         <v>150</v>
       </c>
       <c r="U30" s="9">
@@ -3290,7 +3315,7 @@
       <c r="K31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="19">
         <v>50</v>
       </c>
       <c r="M31" s="9">
@@ -3299,7 +3324,7 @@
       <c r="N31" s="9">
         <v>8632.68</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="20">
         <f t="shared" si="3"/>
         <v>8632.68</v>
       </c>
@@ -3314,7 +3339,7 @@
       <c r="S31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T31" s="13">
+      <c r="T31" s="19">
         <v>75</v>
       </c>
       <c r="U31" s="9">
@@ -3364,7 +3389,7 @@
       <c r="K32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="19">
         <v>50</v>
       </c>
       <c r="M32" s="9">
@@ -3373,7 +3398,7 @@
       <c r="N32" s="9">
         <v>8372</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="20">
         <f t="shared" si="3"/>
         <v>8372</v>
       </c>
@@ -3388,7 +3413,7 @@
       <c r="S32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="T32" s="13">
+      <c r="T32" s="19">
         <v>75</v>
       </c>
       <c r="U32" s="9">
@@ -3438,7 +3463,7 @@
       <c r="K33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="19">
         <v>50</v>
       </c>
       <c r="M33" s="9">
@@ -3447,7 +3472,7 @@
       <c r="N33" s="9">
         <v>8794.65</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="20">
         <f t="shared" si="3"/>
         <v>8757</v>
       </c>
@@ -3462,7 +3487,7 @@
       <c r="S33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T33" s="13">
+      <c r="T33" s="19">
         <v>75</v>
       </c>
       <c r="U33" s="9">
@@ -3512,7 +3537,7 @@
       <c r="K34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="19">
         <v>52</v>
       </c>
       <c r="M34" s="9">
@@ -3521,7 +3546,7 @@
       <c r="N34" s="9">
         <v>4661</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="20">
         <f t="shared" si="3"/>
         <v>4606</v>
       </c>
@@ -3536,7 +3561,7 @@
       <c r="S34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T34" s="13">
+      <c r="T34" s="19">
         <v>78</v>
       </c>
       <c r="U34" s="9">
@@ -3586,7 +3611,7 @@
       <c r="K35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="19">
         <v>159</v>
       </c>
       <c r="M35" s="9">
@@ -3595,7 +3620,7 @@
       <c r="N35" s="9">
         <v>16500</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="20">
         <f t="shared" si="3"/>
         <v>16500</v>
       </c>
@@ -3610,7 +3635,7 @@
       <c r="S35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="13">
+      <c r="T35" s="19">
         <v>238</v>
       </c>
       <c r="U35" s="9">
@@ -3660,7 +3685,7 @@
       <c r="K36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L36" s="19">
         <v>38</v>
       </c>
       <c r="M36" s="9">
@@ -3669,7 +3694,7 @@
       <c r="N36" s="9">
         <v>36956</v>
       </c>
-      <c r="O36" s="14">
+      <c r="O36" s="20">
         <f t="shared" si="3"/>
         <v>36658</v>
       </c>
@@ -3684,7 +3709,7 @@
       <c r="S36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T36" s="13">
+      <c r="T36" s="19">
         <v>57</v>
       </c>
       <c r="U36" s="9">
@@ -3734,7 +3759,7 @@
       <c r="K37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="19">
         <v>52</v>
       </c>
       <c r="M37" s="9">
@@ -3743,7 +3768,7 @@
       <c r="N37" s="9">
         <v>14474</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="20">
         <f t="shared" si="3"/>
         <v>14474</v>
       </c>
@@ -3758,7 +3783,7 @@
       <c r="S37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="T37" s="13">
+      <c r="T37" s="19">
         <v>80</v>
       </c>
       <c r="U37" s="9">
@@ -3808,7 +3833,7 @@
       <c r="K38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="19">
         <v>62</v>
       </c>
       <c r="M38" s="9">
@@ -3817,7 +3842,7 @@
       <c r="N38" s="9">
         <v>20203</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="20">
         <f t="shared" si="3"/>
         <v>20203</v>
       </c>
@@ -3832,7 +3857,7 @@
       <c r="S38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T38" s="13">
+      <c r="T38" s="19">
         <v>93</v>
       </c>
       <c r="U38" s="9">
@@ -3882,7 +3907,7 @@
       <c r="K39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="19">
         <v>68</v>
       </c>
       <c r="M39" s="9">
@@ -3891,7 +3916,7 @@
       <c r="N39" s="9">
         <v>45069</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="20">
         <f t="shared" si="3"/>
         <v>44285</v>
       </c>
@@ -3906,7 +3931,7 @@
       <c r="S39" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="T39" s="13">
+      <c r="T39" s="19">
         <v>102</v>
       </c>
       <c r="U39" s="9">
@@ -3956,7 +3981,7 @@
       <c r="K40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="19">
         <v>72</v>
       </c>
       <c r="M40" s="9">
@@ -3965,7 +3990,7 @@
       <c r="N40" s="9">
         <v>25163.37</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="20">
         <f t="shared" si="3"/>
         <v>25163.37</v>
       </c>
@@ -3980,7 +4005,7 @@
       <c r="S40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T40" s="13">
+      <c r="T40" s="19">
         <v>108</v>
       </c>
       <c r="U40" s="9">
@@ -4030,7 +4055,7 @@
       <c r="K41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="19">
         <v>76</v>
       </c>
       <c r="M41" s="9">
@@ -4039,7 +4064,7 @@
       <c r="N41" s="9">
         <v>30159</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="20">
         <f t="shared" si="3"/>
         <v>30159</v>
       </c>
@@ -4054,7 +4079,7 @@
       <c r="S41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="19">
         <v>114</v>
       </c>
       <c r="U41" s="9">
@@ -4104,7 +4129,7 @@
       <c r="K42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L42" s="13">
+      <c r="L42" s="19">
         <v>113</v>
       </c>
       <c r="M42" s="9">
@@ -4113,7 +4138,7 @@
       <c r="N42" s="9">
         <v>26284</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="20">
         <f t="shared" si="3"/>
         <v>26272</v>
       </c>
@@ -4128,7 +4153,7 @@
       <c r="S42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="T42" s="13">
+      <c r="T42" s="19">
         <v>169</v>
       </c>
       <c r="U42" s="9">
@@ -4178,7 +4203,7 @@
       <c r="K43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="19">
         <v>49</v>
       </c>
       <c r="M43" s="9">
@@ -4187,7 +4212,7 @@
       <c r="N43" s="9">
         <v>542</v>
       </c>
-      <c r="O43" s="14">
+      <c r="O43" s="20">
         <f t="shared" si="3"/>
         <v>535</v>
       </c>
@@ -4202,7 +4227,7 @@
       <c r="S43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="T43" s="13">
+      <c r="T43" s="19">
         <v>74</v>
       </c>
       <c r="U43" s="9">
@@ -4252,7 +4277,7 @@
       <c r="K44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="19">
         <v>97</v>
       </c>
       <c r="M44" s="9">
@@ -4261,7 +4286,7 @@
       <c r="N44" s="9">
         <v>1116</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O44" s="20">
         <f t="shared" si="3"/>
         <v>1116</v>
       </c>
@@ -4276,7 +4301,7 @@
       <c r="S44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="19">
         <v>146</v>
       </c>
       <c r="U44" s="9">
@@ -4326,7 +4351,7 @@
       <c r="K45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L45" s="19">
         <v>35</v>
       </c>
       <c r="M45" s="9">
@@ -4335,7 +4360,7 @@
       <c r="N45" s="9">
         <v>253</v>
       </c>
-      <c r="O45" s="14">
+      <c r="O45" s="20">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
@@ -4350,7 +4375,7 @@
       <c r="S45" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="19">
         <v>52</v>
       </c>
       <c r="U45" s="9">
@@ -4400,7 +4425,7 @@
       <c r="K46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L46" s="19">
         <v>21</v>
       </c>
       <c r="M46" s="9">
@@ -4409,7 +4434,7 @@
       <c r="N46" s="9">
         <v>418</v>
       </c>
-      <c r="O46" s="14">
+      <c r="O46" s="20">
         <f t="shared" si="3"/>
         <v>410</v>
       </c>
@@ -4424,7 +4449,7 @@
       <c r="S46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="T46" s="13">
+      <c r="T46" s="19">
         <v>31</v>
       </c>
       <c r="U46" s="9">
@@ -4474,7 +4499,7 @@
       <c r="K47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L47" s="19">
         <v>8</v>
       </c>
       <c r="M47" s="9">
@@ -4483,7 +4508,7 @@
       <c r="N47" s="9">
         <v>1397</v>
       </c>
-      <c r="O47" s="14">
+      <c r="O47" s="20">
         <f t="shared" si="3"/>
         <v>1397</v>
       </c>
@@ -4498,7 +4523,7 @@
       <c r="S47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T47" s="13">
+      <c r="T47" s="19">
         <v>12</v>
       </c>
       <c r="U47" s="9">
@@ -4548,7 +4573,7 @@
       <c r="K48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L48" s="19">
         <v>11</v>
       </c>
       <c r="M48" s="9">
@@ -4557,7 +4582,7 @@
       <c r="N48" s="9">
         <v>1949</v>
       </c>
-      <c r="O48" s="14">
+      <c r="O48" s="20">
         <f t="shared" si="3"/>
         <v>1591</v>
       </c>
@@ -4572,7 +4597,7 @@
       <c r="S48" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="T48" s="13">
+      <c r="T48" s="19">
         <v>16</v>
       </c>
       <c r="U48" s="9">
@@ -4641,11 +4666,38 @@
         <v>0.00489312989097473</v>
       </c>
     </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" ht="15.75" spans="3:5">
+      <c r="C54" s="17">
+        <f>SUM(H49,P49,X49)</f>
+        <v>0.0250487976302393</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18">
+        <f>SUM(I49,Q49,Y49)</f>
+        <v>0.0350004616400941</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="K49:O49"/>
     <mergeCell ref="S49:W49"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E52:E53"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="W2:W4"/>
@@ -4655,6 +4707,7 @@
     <mergeCell ref="H2:I3"/>
     <mergeCell ref="P2:Q3"/>
     <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="C52:D53"/>
   </mergeCells>
   <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
